--- a/dataset/公共教育支出占GDP份额.xlsx
+++ b/dataset/公共教育支出占GDP份额.xlsx
@@ -68,7 +68,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#.0;\-#.0;0.0;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,48 +83,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -133,47 +91,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +115,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -197,32 +184,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +197,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,181 +236,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +445,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -463,6 +495,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,212 +527,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,15 +1042,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:32">
+    <row r="1" ht="15.6" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,47 +1063,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
     </row>
-    <row r="2" ht="15.6" spans="1:32">
+    <row r="2" ht="15.6" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,104 +1116,136 @@
       <c r="C2" s="1">
         <v>5.59523010253906</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>5.5297999382019</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5.59899997711182</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5.55615997314453</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5.42670011520386</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>5.44209003448486</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>5.37</v>
-      </c>
-      <c r="C3">
-        <v>5.07</v>
-      </c>
-      <c r="D3">
-        <v>5.23</v>
-      </c>
-      <c r="E3">
-        <v>5.16</v>
-      </c>
-      <c r="F3">
-        <v>5.31</v>
-      </c>
-      <c r="G3">
-        <v>5.28</v>
-      </c>
-      <c r="H3">
-        <v>5.12</v>
+      <c r="B3" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>5.37</v>
-      </c>
-      <c r="C4">
-        <v>5.27</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="4">
         <v>6.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>6.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="G4" s="4">
         <v>5.9</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="4">
         <v>6</v>
       </c>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
